--- a/Spring事务.xlsx
+++ b/Spring事务.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5589AF6C-7859-457A-AA63-A03FA7454147}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>REQUIRES_NEW</t>
   </si>
@@ -247,12 +246,15 @@
   <si>
     <t>以下测试均假设有外层事务且是默认的REQUIRED传播属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部回滚、内部不回滚</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -610,28 +612,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="21.58203125" customWidth="1"/>
     <col min="2" max="2" width="53.5" customWidth="1"/>
-    <col min="4" max="4" width="35.625" customWidth="1"/>
-    <col min="5" max="5" width="41.125" customWidth="1"/>
+    <col min="4" max="4" width="35.58203125" customWidth="1"/>
+    <col min="5" max="5" width="41.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -648,7 +650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -665,10 +667,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,10 +684,10 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -702,10 +704,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -722,7 +724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -733,10 +735,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -753,7 +755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>

--- a/Spring事务.xlsx
+++ b/Spring事务.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>REQUIRES_NEW</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>外部回滚、内部不回滚</t>
+  </si>
+  <si>
+    <t>内部不回滚、外部回滚</t>
   </si>
 </sst>
 </file>
@@ -616,7 +619,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -766,10 +769,10 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
